--- a/assets/template_aset.xlsx
+++ b/assets/template_aset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f91c3f0a4e21427/Dokumen/Project/Aset/SNTZ/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{72EA28B3-6C54-4F49-8A76-1BCFAE7EC634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C02F395-0259-4C77-AE17-FC1B5588E942}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="8_{72EA28B3-6C54-4F49-8A76-1BCFAE7EC634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F9BCEA6-1B01-491B-8BAE-26BEFAA7A239}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{4863C22B-E61A-4FF8-97E8-02492FE08DBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{4863C22B-E61A-4FF8-97E8-02492FE08DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Bangunan" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,10 @@
     <sheet name="Barang" sheetId="4" r:id="rId3"/>
     <sheet name="Aset" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Aset!$A$1:$H$472</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Barang!$A$1:$D$122</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="244">
   <si>
     <t>nama_bangunan</t>
   </si>
@@ -398,9 +402,6 @@
     <t>Gelas Kaca Firna</t>
   </si>
   <si>
-    <t>Alat Makan</t>
-  </si>
-  <si>
     <t>Firna</t>
   </si>
   <si>
@@ -626,9 +627,6 @@
     <t>Sendok Sayur</t>
   </si>
   <si>
-    <t>Sendok Masak</t>
-  </si>
-  <si>
     <t>Sendok Nasi</t>
   </si>
   <si>
@@ -774,6 +772,9 @@
   </si>
   <si>
     <t>kebutuhan</t>
+  </si>
+  <si>
+    <t>Sendok Makan</t>
   </si>
 </sst>
 </file>
@@ -838,10 +839,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1240,7 +1237,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1251,7 +1248,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -1262,7 +1259,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -1270,7 +1267,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -1278,7 +1275,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
@@ -1286,7 +1283,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
@@ -1294,7 +1291,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
@@ -1302,7 +1299,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
@@ -1310,7 +1307,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
@@ -1734,7 +1731,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>3</v>
@@ -1758,14 +1755,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED355CB-27E0-4A32-B3BC-8C1EA4DEE525}">
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2075,18 +2072,18 @@
         <v>118</v>
       </c>
       <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" t="s">
         <v>119</v>
-      </c>
-      <c r="C28" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" t="s">
         <v>121</v>
-      </c>
-      <c r="B29" t="s">
-        <v>122</v>
       </c>
       <c r="C29" t="s">
         <v>87</v>
@@ -2094,7 +2091,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s">
         <v>93</v>
@@ -2105,7 +2102,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31" t="s">
         <v>86</v>
@@ -2116,7 +2113,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32" t="s">
         <v>100</v>
@@ -2127,7 +2124,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B33" t="s">
         <v>100</v>
@@ -2138,7 +2135,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B34" t="s">
         <v>93</v>
@@ -2149,7 +2146,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B35" t="s">
         <v>100</v>
@@ -2160,7 +2157,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
         <v>100</v>
@@ -2171,7 +2168,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B37" t="s">
         <v>100</v>
@@ -2182,7 +2179,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
@@ -2199,23 +2196,23 @@
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B40" t="s">
         <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B41" t="s">
         <v>100</v>
@@ -2226,7 +2223,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B42" t="s">
         <v>104</v>
@@ -2248,29 +2245,29 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
@@ -2281,7 +2278,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
@@ -2292,18 +2289,18 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
@@ -2314,7 +2311,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
@@ -2325,7 +2322,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B51" t="s">
         <v>104</v>
@@ -2336,7 +2333,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B52" t="s">
         <v>12</v>
@@ -2347,7 +2344,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B53" t="s">
         <v>98</v>
@@ -2358,7 +2355,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B54" t="s">
         <v>98</v>
@@ -2369,7 +2366,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B55" t="s">
         <v>98</v>
@@ -2380,7 +2377,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
@@ -2391,7 +2388,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
@@ -2402,7 +2399,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
@@ -2413,7 +2410,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
@@ -2424,7 +2421,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
@@ -2435,7 +2432,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
@@ -2446,7 +2443,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
@@ -2457,7 +2454,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
@@ -2468,7 +2465,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
@@ -2479,7 +2476,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
@@ -2490,40 +2487,40 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B66" t="s">
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B67" t="s">
         <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B68" t="s">
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B69" t="s">
         <v>12</v>
@@ -2534,7 +2531,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B70" t="s">
         <v>104</v>
@@ -2545,18 +2542,18 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B71" t="s">
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B72" t="s">
         <v>111</v>
@@ -2567,7 +2564,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B73" t="s">
         <v>111</v>
@@ -2578,18 +2575,18 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B74" t="s">
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B75" t="s">
         <v>104</v>
@@ -2600,7 +2597,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B76" t="s">
         <v>98</v>
@@ -2611,7 +2608,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B77" t="s">
         <v>98</v>
@@ -2622,7 +2619,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B78" t="s">
         <v>98</v>
@@ -2633,7 +2630,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B79" t="s">
         <v>98</v>
@@ -2644,7 +2641,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B80" t="s">
         <v>98</v>
@@ -2655,7 +2652,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B81" t="s">
         <v>104</v>
@@ -2666,7 +2663,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B82" t="s">
         <v>104</v>
@@ -2677,18 +2674,18 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B83" t="s">
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B84" t="s">
         <v>104</v>
@@ -2699,7 +2696,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B85" t="s">
         <v>10</v>
@@ -2710,7 +2707,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B86" t="s">
         <v>10</v>
@@ -2721,7 +2718,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
@@ -2732,7 +2729,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B88" t="s">
         <v>100</v>
@@ -2743,7 +2740,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B89" t="s">
         <v>104</v>
@@ -2754,7 +2751,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B90" t="s">
         <v>104</v>
@@ -2765,7 +2762,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B91" t="s">
         <v>93</v>
@@ -2776,7 +2773,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
@@ -2787,7 +2784,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B93" t="s">
         <v>93</v>
@@ -2798,10 +2795,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B94" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s">
         <v>87</v>
@@ -2809,10 +2806,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="B95" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C95" t="s">
         <v>87</v>
@@ -2820,10 +2817,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B96" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C96" t="s">
         <v>87</v>
@@ -2831,10 +2828,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B97" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C97" t="s">
         <v>87</v>
@@ -2842,7 +2839,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B98" t="s">
         <v>93</v>
@@ -2853,18 +2850,18 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B99" t="s">
         <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B100" t="s">
         <v>100</v>
@@ -2875,7 +2872,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B101" t="s">
         <v>10</v>
@@ -2886,7 +2883,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B102" t="s">
         <v>12</v>
@@ -2897,10 +2894,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B103" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C103" t="s">
         <v>87</v>
@@ -2908,10 +2905,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B104" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C104" t="s">
         <v>87</v>
@@ -2919,10 +2916,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B105" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C105" t="s">
         <v>87</v>
@@ -2930,7 +2927,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B106" t="s">
         <v>104</v>
@@ -2941,10 +2938,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B107" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C107" t="s">
         <v>87</v>
@@ -2952,7 +2949,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B108" t="s">
         <v>104</v>
@@ -2963,10 +2960,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B109" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C109" t="s">
         <v>87</v>
@@ -2974,10 +2971,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B110" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C110" t="s">
         <v>87</v>
@@ -2985,10 +2982,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B111" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C111" t="s">
         <v>87</v>
@@ -2996,7 +2993,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B112" t="s">
         <v>10</v>
@@ -3007,10 +3004,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B113" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C113" t="s">
         <v>87</v>
@@ -3018,10 +3015,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B114" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C114" t="s">
         <v>87</v>
@@ -3029,10 +3026,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B115" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C115" t="s">
         <v>87</v>
@@ -3040,10 +3037,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B116" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C116" t="s">
         <v>87</v>
@@ -3051,10 +3048,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B117" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C117" t="s">
         <v>87</v>
@@ -3062,10 +3059,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B118" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C118" t="s">
         <v>87</v>
@@ -3073,18 +3070,18 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B119" t="s">
         <v>12</v>
       </c>
       <c r="C119" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B120" t="s">
         <v>100</v>
@@ -3095,7 +3092,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B121" t="s">
         <v>100</v>
@@ -3106,13 +3103,13 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B122" t="s">
         <v>12</v>
       </c>
       <c r="C122" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3122,10 +3119,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8943D4-7C6B-4B65-A4D9-D15AF6DAD928}">
-  <dimension ref="A1:H473"/>
+  <dimension ref="A1:H472"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3155,14 +3152,14 @@
         <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>64</v>
@@ -3182,7 +3179,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>64</v>
@@ -3202,7 +3199,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>64</v>
@@ -3239,7 +3236,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -3256,7 +3253,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -3265,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3273,7 +3270,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -3282,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -3290,7 +3287,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -3299,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3307,7 +3304,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s">
         <v>65</v>
@@ -3324,7 +3321,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B11" t="s">
         <v>63</v>
@@ -3358,7 +3355,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
         <v>63</v>
@@ -3409,7 +3406,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" t="s">
         <v>63</v>
@@ -3426,7 +3423,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s">
         <v>63</v>
@@ -3443,7 +3440,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
         <v>63</v>
@@ -3460,7 +3457,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s">
         <v>63</v>
@@ -3494,7 +3491,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B21" t="s">
         <v>63</v>
@@ -3531,7 +3528,7 @@
         <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3545,10 +3542,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -3565,7 +3562,7 @@
         <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -3582,7 +3579,7 @@
         <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -3596,10 +3593,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -3616,7 +3613,7 @@
         <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -3633,7 +3630,7 @@
         <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3650,7 +3647,7 @@
         <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3664,10 +3661,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B31" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -3681,16 +3678,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F32">
         <v>10</v>
@@ -3698,16 +3695,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F33">
         <v>10</v>
@@ -3718,7 +3715,7 @@
         <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3729,10 +3726,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B35" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -3743,10 +3740,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B36" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3757,16 +3754,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B37" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -3788,7 +3785,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B39" t="s">
         <v>56</v>
@@ -3830,7 +3827,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B42" t="s">
         <v>56</v>
@@ -3844,7 +3841,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B43" t="s">
         <v>56</v>
@@ -3858,7 +3855,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B44" t="s">
         <v>56</v>
@@ -3872,7 +3869,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B45" t="s">
         <v>56</v>
@@ -3886,7 +3883,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B46" t="s">
         <v>56</v>
@@ -3900,7 +3897,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B47" t="s">
         <v>56</v>
@@ -3914,7 +3911,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B48" t="s">
         <v>56</v>
@@ -3923,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F48">
         <v>7</v>
@@ -3931,7 +3928,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B49" t="s">
         <v>56</v>
@@ -3940,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F49">
         <v>7</v>
@@ -3962,7 +3959,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B51" t="s">
         <v>56</v>
@@ -3976,7 +3973,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B52" t="s">
         <v>56</v>
@@ -3985,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -3993,7 +3990,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B53" t="s">
         <v>56</v>
@@ -4007,7 +4004,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B54" t="s">
         <v>56</v>
@@ -4016,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F54">
         <v>22</v>
@@ -4038,7 +4035,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
@@ -4080,7 +4077,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B59" t="s">
         <v>57</v>
@@ -4094,7 +4091,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B60" t="s">
         <v>57</v>
@@ -4108,7 +4105,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B61" t="s">
         <v>57</v>
@@ -4122,7 +4119,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B62" t="s">
         <v>57</v>
@@ -4136,7 +4133,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B63" t="s">
         <v>57</v>
@@ -4150,7 +4147,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B64" t="s">
         <v>57</v>
@@ -4159,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -4167,7 +4164,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B65" t="s">
         <v>57</v>
@@ -4181,7 +4178,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B66" t="s">
         <v>57</v>
@@ -4195,7 +4192,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B67" t="s">
         <v>57</v>
@@ -4204,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F67">
         <v>5</v>
@@ -4212,7 +4209,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B68" t="s">
         <v>57</v>
@@ -4221,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F68">
         <v>5</v>
@@ -4243,7 +4240,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B70" t="s">
         <v>57</v>
@@ -4252,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F70">
         <v>30</v>
@@ -4260,7 +4257,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B71" t="s">
         <v>57</v>
@@ -4274,7 +4271,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B72" t="s">
         <v>57</v>
@@ -4283,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -4291,7 +4288,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B73" t="s">
         <v>57</v>
@@ -4308,7 +4305,7 @@
         <v>99</v>
       </c>
       <c r="B74" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -4322,7 +4319,7 @@
         <v>102</v>
       </c>
       <c r="B75" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -4333,10 +4330,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B76" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -4347,10 +4344,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B77" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -4364,7 +4361,7 @@
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4403,7 +4400,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B81" t="s">
         <v>55</v>
@@ -4451,7 +4448,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B84" t="s">
         <v>52</v>
@@ -4460,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F84">
         <v>3</v>
@@ -4468,7 +4465,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B85" t="s">
         <v>52</v>
@@ -4477,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F85">
         <v>3</v>
@@ -4485,7 +4482,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B86" t="s">
         <v>69</v>
@@ -4553,7 +4550,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B90" t="s">
         <v>69</v>
@@ -4570,7 +4567,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B91" t="s">
         <v>69</v>
@@ -4579,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F91">
         <v>2</v>
@@ -4587,7 +4584,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B92" t="s">
         <v>69</v>
@@ -4596,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F92">
         <v>2</v>
@@ -4604,7 +4601,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B93" t="s">
         <v>69</v>
@@ -4613,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -4638,7 +4635,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B95" t="s">
         <v>70</v>
@@ -4655,7 +4652,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B96" t="s">
         <v>71</v>
@@ -4726,7 +4723,7 @@
         <v>88</v>
       </c>
       <c r="B100" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4743,7 +4740,7 @@
         <v>95</v>
       </c>
       <c r="B101" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4760,7 +4757,7 @@
         <v>97</v>
       </c>
       <c r="B102" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C102">
         <v>4</v>
@@ -4774,10 +4771,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B103" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C103">
         <v>14</v>
@@ -4794,7 +4791,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C104">
         <v>10</v>
@@ -4811,7 +4808,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C105">
         <v>6</v>
@@ -4828,7 +4825,7 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -4845,7 +4842,7 @@
         <v>117</v>
       </c>
       <c r="B107" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C107">
         <v>3</v>
@@ -4862,7 +4859,7 @@
         <v>118</v>
       </c>
       <c r="B108" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C108">
         <v>71</v>
@@ -4876,10 +4873,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B109" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C109">
         <v>6</v>
@@ -4893,10 +4890,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B110" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C110">
         <v>2</v>
@@ -4910,10 +4907,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B111" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -4927,10 +4924,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B112" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -4944,10 +4941,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B113" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -4961,10 +4958,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C114">
         <v>4</v>
@@ -4978,10 +4975,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -4995,10 +4992,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B116" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C116">
         <v>12</v>
@@ -5012,10 +5009,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B117" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C117">
         <v>2</v>
@@ -5029,10 +5026,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C118">
         <v>8</v>
@@ -5046,10 +5043,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B119" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C119">
         <v>3</v>
@@ -5063,10 +5060,10 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B120" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C120">
         <v>47</v>
@@ -5080,10 +5077,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B121" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C121">
         <v>12</v>
@@ -5097,10 +5094,10 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B122" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C122">
         <v>7</v>
@@ -5114,10 +5111,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B123" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C123">
         <v>4</v>
@@ -5131,10 +5128,10 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B124" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C124">
         <v>6</v>
@@ -5148,10 +5145,10 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B125" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C125">
         <v>3</v>
@@ -5165,10 +5162,10 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B126" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C126">
         <v>17</v>
@@ -5182,10 +5179,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B127" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C127">
         <v>2</v>
@@ -5199,10 +5196,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B128" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C128">
         <v>4</v>
@@ -5216,10 +5213,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B129" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C129">
         <v>2</v>
@@ -5233,10 +5230,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -5250,10 +5247,10 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B131" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C131">
         <v>5</v>
@@ -5267,10 +5264,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B132" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C132">
         <v>38</v>
@@ -5284,10 +5281,10 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B133" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C133">
         <v>6</v>
@@ -5301,10 +5298,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B134" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C134">
         <v>12</v>
@@ -5318,10 +5315,10 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B135" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C135">
         <v>164</v>
@@ -5335,10 +5332,10 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B136" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C136">
         <v>70</v>
@@ -5352,10 +5349,10 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B137" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C137">
         <v>2</v>
@@ -5369,10 +5366,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B138" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C138">
         <v>2</v>
@@ -5386,10 +5383,10 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B139" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C139">
         <v>30</v>
@@ -5406,163 +5403,160 @@
         <v>195</v>
       </c>
       <c r="B140" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C140">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D140" t="s">
         <v>20</v>
       </c>
       <c r="F140">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B141" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C141">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D141" t="s">
         <v>20</v>
       </c>
       <c r="F141">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B142" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D142" t="s">
         <v>20</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B143" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C143">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D143" t="s">
         <v>20</v>
       </c>
       <c r="F143">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B144" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
         <v>20</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="B145" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C145">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D145" t="s">
         <v>20</v>
       </c>
       <c r="F145">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B146" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C146">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D146" t="s">
         <v>20</v>
       </c>
       <c r="F146">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B147" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C147">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D147" t="s">
         <v>20</v>
       </c>
       <c r="F147">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B148" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C148">
-        <v>30</v>
-      </c>
-      <c r="D148" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F148">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c r="B149" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C149">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="F149">
         <v>60</v>
@@ -5570,13 +5564,13 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c r="B150" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C150">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F150">
         <v>60</v>
@@ -5584,13 +5578,16 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B151" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C151">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="D151" t="s">
+        <v>233</v>
       </c>
       <c r="F151">
         <v>60</v>
@@ -5598,33 +5595,33 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="B152" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C152">
         <v>0</v>
       </c>
       <c r="D152" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F152">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B153" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C153">
         <v>0</v>
       </c>
       <c r="D153" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F153">
         <v>15</v>
@@ -5632,16 +5629,16 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B154" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C154">
         <v>0</v>
       </c>
       <c r="D154" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F154">
         <v>15</v>
@@ -5649,84 +5646,84 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="B155" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D155" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F155">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="B156" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C156">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D156" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F156">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B157" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C157">
         <v>0</v>
       </c>
       <c r="D157" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F157">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="B158" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C158">
         <v>0</v>
       </c>
       <c r="D158" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F158">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B159" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C159">
         <v>0</v>
       </c>
       <c r="D159" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F159">
         <v>15</v>
@@ -5734,16 +5731,13 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>212</v>
+        <v>148</v>
       </c>
       <c r="B160" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C160">
-        <v>0</v>
-      </c>
-      <c r="D160" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="F160">
         <v>15</v>
@@ -5751,13 +5745,16 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="B161" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C161">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="D161" t="s">
+        <v>233</v>
       </c>
       <c r="F161">
         <v>15</v>
@@ -5765,16 +5762,13 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="B162" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C162">
-        <v>0</v>
-      </c>
-      <c r="D162" t="s">
-        <v>235</v>
+        <v>2</v>
       </c>
       <c r="F162">
         <v>15</v>
@@ -5782,13 +5776,16 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B163" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D163" t="s">
+        <v>233</v>
       </c>
       <c r="F163">
         <v>15</v>
@@ -5796,41 +5793,41 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>214</v>
+        <v>130</v>
       </c>
       <c r="B164" t="s">
-        <v>225</v>
+        <v>68</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D164" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="F164">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="B165" t="s">
         <v>68</v>
       </c>
       <c r="C165">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D165" t="s">
         <v>20</v>
       </c>
       <c r="F165">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B166" t="s">
         <v>68</v>
@@ -5847,7 +5844,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c r="B167" t="s">
         <v>68</v>
@@ -5864,24 +5861,24 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="B168" t="s">
         <v>68</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D168" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="B169" t="s">
         <v>68</v>
@@ -5890,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="D169" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F169">
         <v>10</v>
@@ -5898,70 +5895,70 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="B170" t="s">
         <v>68</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D170" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="F170">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="B171" t="s">
         <v>68</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D171" t="s">
         <v>20</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B172" t="s">
         <v>68</v>
       </c>
       <c r="C172">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D172" t="s">
         <v>20</v>
       </c>
       <c r="F172">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="B173" t="s">
         <v>68</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D173" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -5975,49 +5972,49 @@
         <v>0</v>
       </c>
       <c r="D174" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F174">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="B175" t="s">
         <v>68</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D175" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>139</v>
+        <v>202</v>
       </c>
       <c r="B176" t="s">
         <v>68</v>
       </c>
       <c r="C176">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D176" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F176">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B177" t="s">
         <v>68</v>
@@ -6026,52 +6023,52 @@
         <v>0</v>
       </c>
       <c r="D177" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F177">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B178" t="s">
-        <v>68</v>
+        <v>224</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D178" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="B179" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D179" t="s">
         <v>20</v>
       </c>
       <c r="F179">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="B180" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C180">
         <v>4</v>
@@ -6085,10 +6082,10 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B181" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C181">
         <v>4</v>
@@ -6102,27 +6099,27 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="B182" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C182">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D182" t="s">
         <v>20</v>
       </c>
       <c r="F182">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B183" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -6136,50 +6133,50 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B184" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D184" t="s">
         <v>20</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="B185" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D185" t="s">
         <v>20</v>
       </c>
       <c r="F185">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B186" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D186" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="F186">
         <v>1</v>
@@ -6187,16 +6184,16 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C187">
         <v>0</v>
       </c>
       <c r="D187" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F187">
         <v>1</v>
@@ -6204,16 +6201,16 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="B188" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C188">
         <v>0</v>
       </c>
       <c r="D188" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F188">
         <v>1</v>
@@ -6221,16 +6218,16 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B189" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="F189">
         <v>1</v>
@@ -6238,10 +6235,10 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B190" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -6255,44 +6252,44 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B191" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D191" t="s">
         <v>20</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="B192" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D192" t="s">
         <v>20</v>
       </c>
       <c r="F192">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="B193" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C193">
         <v>4</v>
@@ -6306,10 +6303,10 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B194" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C194">
         <v>4</v>
@@ -6323,27 +6320,27 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="B195" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C195">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D195" t="s">
         <v>20</v>
       </c>
       <c r="F195">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B196" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -6357,50 +6354,50 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B197" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D197" t="s">
         <v>20</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="B198" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D198" t="s">
         <v>20</v>
       </c>
       <c r="F198">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B199" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D199" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -6408,16 +6405,16 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="B200" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C200">
         <v>0</v>
       </c>
       <c r="D200" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F200">
         <v>1</v>
@@ -6425,16 +6422,16 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="B201" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C201">
         <v>0</v>
       </c>
       <c r="D201" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F201">
         <v>1</v>
@@ -6442,16 +6439,16 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B202" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D202" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="F202">
         <v>1</v>
@@ -6459,10 +6456,10 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B203" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -6476,44 +6473,44 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B204" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D204" t="s">
         <v>20</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="B205" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C205">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D205" t="s">
         <v>20</v>
       </c>
       <c r="F205">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="B206" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C206">
         <v>4</v>
@@ -6527,10 +6524,10 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B207" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C207">
         <v>4</v>
@@ -6544,27 +6541,27 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="B208" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C208">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D208" t="s">
         <v>20</v>
       </c>
       <c r="F208">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B209" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -6578,50 +6575,50 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B210" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D210" t="s">
         <v>20</v>
       </c>
       <c r="F210">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="B211" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D211" t="s">
         <v>20</v>
       </c>
       <c r="F211">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B212" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D212" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="F212">
         <v>1</v>
@@ -6629,16 +6626,16 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="B213" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C213">
         <v>0</v>
       </c>
       <c r="D213" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F213">
         <v>1</v>
@@ -6646,16 +6643,16 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="B214" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C214">
         <v>0</v>
       </c>
       <c r="D214" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F214">
         <v>1</v>
@@ -6663,16 +6660,16 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B215" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D215" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="F215">
         <v>1</v>
@@ -6680,10 +6677,10 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B216" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -6697,44 +6694,44 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B217" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D217" t="s">
         <v>20</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="B218" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C218">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D218" t="s">
         <v>20</v>
       </c>
       <c r="F218">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="B219" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C219">
         <v>4</v>
@@ -6748,10 +6745,10 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B220" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C220">
         <v>4</v>
@@ -6765,27 +6762,27 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="B221" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C221">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D221" t="s">
         <v>20</v>
       </c>
       <c r="F221">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B222" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -6799,50 +6796,50 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B223" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D223" t="s">
         <v>20</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="B224" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D224" t="s">
         <v>20</v>
       </c>
       <c r="F224">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B225" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D225" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="F225">
         <v>1</v>
@@ -6850,16 +6847,16 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="B226" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C226">
         <v>0</v>
       </c>
       <c r="D226" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F226">
         <v>1</v>
@@ -6867,16 +6864,16 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="B227" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C227">
         <v>0</v>
       </c>
       <c r="D227" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F227">
         <v>1</v>
@@ -6884,16 +6881,16 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B228" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C228">
         <v>0</v>
       </c>
       <c r="D228" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -6901,16 +6898,16 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B229" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D229" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="F229">
         <v>1</v>
@@ -6918,44 +6915,44 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B230" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D230" t="s">
         <v>20</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="B231" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C231">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D231" t="s">
         <v>20</v>
       </c>
       <c r="F231">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="B232" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C232">
         <v>4</v>
@@ -6969,10 +6966,10 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B233" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C233">
         <v>4</v>
@@ -6986,27 +6983,27 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="B234" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C234">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D234" t="s">
         <v>20</v>
       </c>
       <c r="F234">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B235" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -7020,50 +7017,50 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B236" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D236" t="s">
         <v>20</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="B237" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D237" t="s">
         <v>20</v>
       </c>
       <c r="F237">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B238" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D238" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="F238">
         <v>1</v>
@@ -7071,16 +7068,16 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="B239" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C239">
         <v>0</v>
       </c>
       <c r="D239" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F239">
         <v>1</v>
@@ -7088,16 +7085,16 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="B240" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C240">
         <v>0</v>
       </c>
       <c r="D240" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F240">
         <v>1</v>
@@ -7105,16 +7102,16 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B241" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C241">
         <v>0</v>
       </c>
       <c r="D241" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F241">
         <v>1</v>
@@ -7122,16 +7119,16 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B242" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D242" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="F242">
         <v>1</v>
@@ -7139,44 +7136,44 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B243" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D243" t="s">
         <v>20</v>
       </c>
       <c r="F243">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="B244" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C244">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D244" t="s">
         <v>20</v>
       </c>
       <c r="F244">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="B245" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C245">
         <v>4</v>
@@ -7190,10 +7187,10 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B246" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C246">
         <v>4</v>
@@ -7207,27 +7204,27 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="B247" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C247">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D247" t="s">
         <v>20</v>
       </c>
       <c r="F247">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B248" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -7241,50 +7238,50 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B249" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D249" t="s">
         <v>20</v>
       </c>
       <c r="F249">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="B250" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D250" t="s">
         <v>20</v>
       </c>
       <c r="F250">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B251" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D251" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="F251">
         <v>1</v>
@@ -7292,16 +7289,16 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="B252" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C252">
         <v>0</v>
       </c>
       <c r="D252" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F252">
         <v>1</v>
@@ -7309,16 +7306,16 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="B253" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C253">
         <v>0</v>
       </c>
       <c r="D253" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F253">
         <v>1</v>
@@ -7326,16 +7323,16 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B254" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C254">
         <v>0</v>
       </c>
       <c r="D254" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F254">
         <v>1</v>
@@ -7343,16 +7340,16 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B255" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C255">
         <v>0</v>
       </c>
       <c r="D255" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F255">
         <v>1</v>
@@ -7360,44 +7357,44 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B256" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C256">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D256" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="F256">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="B257" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C257">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D257" t="s">
         <v>20</v>
       </c>
       <c r="F257">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="B258" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C258">
         <v>4</v>
@@ -7411,10 +7408,10 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B259" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C259">
         <v>4</v>
@@ -7428,27 +7425,27 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="B260" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C260">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D260" t="s">
         <v>20</v>
       </c>
       <c r="F260">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B261" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -7462,50 +7459,50 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B262" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D262" t="s">
         <v>20</v>
       </c>
       <c r="F262">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="B263" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C263">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D263" t="s">
         <v>20</v>
       </c>
       <c r="F263">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B264" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D264" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="F264">
         <v>1</v>
@@ -7513,16 +7510,16 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="B265" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C265">
         <v>0</v>
       </c>
       <c r="D265" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F265">
         <v>1</v>
@@ -7530,16 +7527,16 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="B266" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C266">
         <v>0</v>
       </c>
       <c r="D266" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F266">
         <v>1</v>
@@ -7547,16 +7544,16 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B267" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C267">
         <v>0</v>
       </c>
       <c r="D267" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F267">
         <v>1</v>
@@ -7564,16 +7561,16 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B268" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C268">
         <v>0</v>
       </c>
       <c r="D268" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F268">
         <v>1</v>
@@ -7581,44 +7578,44 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B269" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C269">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D269" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="F269">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="B270" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C270">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D270" t="s">
         <v>20</v>
       </c>
       <c r="F270">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="B271" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C271">
         <v>4</v>
@@ -7632,10 +7629,10 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B272" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C272">
         <v>4</v>
@@ -7649,27 +7646,27 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="B273" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C273">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D273" t="s">
         <v>20</v>
       </c>
       <c r="F273">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B274" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -7683,50 +7680,50 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B275" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D275" t="s">
         <v>20</v>
       </c>
       <c r="F275">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="B276" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D276" t="s">
         <v>20</v>
       </c>
       <c r="F276">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B277" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D277" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="F277">
         <v>1</v>
@@ -7734,16 +7731,16 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="B278" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C278">
         <v>0</v>
       </c>
       <c r="D278" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F278">
         <v>1</v>
@@ -7751,16 +7748,16 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="B279" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C279">
         <v>0</v>
       </c>
       <c r="D279" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F279">
         <v>1</v>
@@ -7768,16 +7765,16 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B280" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C280">
         <v>0</v>
       </c>
       <c r="D280" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F280">
         <v>1</v>
@@ -7785,16 +7782,16 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B281" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C281">
         <v>0</v>
       </c>
       <c r="D281" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F281">
         <v>1</v>
@@ -7802,44 +7799,44 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B282" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C282">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D282" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="F282">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="B283" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C283">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D283" t="s">
         <v>20</v>
       </c>
       <c r="F283">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="B284" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C284">
         <v>4</v>
@@ -7853,10 +7850,10 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B285" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C285">
         <v>4</v>
@@ -7870,27 +7867,27 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="B286" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C286">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D286" t="s">
         <v>20</v>
       </c>
       <c r="F286">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B287" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C287">
         <v>1</v>
@@ -7904,50 +7901,50 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B288" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D288" t="s">
         <v>20</v>
       </c>
       <c r="F288">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="B289" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C289">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D289" t="s">
         <v>20</v>
       </c>
       <c r="F289">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B290" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C290">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D290" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="F290">
         <v>1</v>
@@ -7955,16 +7952,16 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="B291" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C291">
         <v>0</v>
       </c>
       <c r="D291" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F291">
         <v>1</v>
@@ -7972,16 +7969,16 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="B292" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C292">
         <v>0</v>
       </c>
       <c r="D292" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F292">
         <v>1</v>
@@ -7989,16 +7986,16 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B293" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C293">
         <v>0</v>
       </c>
       <c r="D293" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F293">
         <v>1</v>
@@ -8006,16 +8003,16 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B294" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C294">
         <v>0</v>
       </c>
       <c r="D294" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F294">
         <v>1</v>
@@ -8023,41 +8020,41 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B295" t="s">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="C295">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D295" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="F295">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="B296" t="s">
         <v>22</v>
       </c>
       <c r="C296">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D296" t="s">
         <v>20</v>
       </c>
       <c r="F296">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="B297" t="s">
         <v>22</v>
@@ -8074,7 +8071,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B298" t="s">
         <v>22</v>
@@ -8091,24 +8088,24 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="B299" t="s">
         <v>22</v>
       </c>
       <c r="C299">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D299" t="s">
         <v>20</v>
       </c>
       <c r="F299">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B300" t="s">
         <v>22</v>
@@ -8125,50 +8122,50 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B301" t="s">
         <v>22</v>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D301" t="s">
         <v>20</v>
       </c>
       <c r="F301">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="B302" t="s">
         <v>22</v>
       </c>
       <c r="C302">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D302" t="s">
         <v>20</v>
       </c>
       <c r="F302">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B303" t="s">
         <v>22</v>
       </c>
       <c r="C303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D303" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="F303">
         <v>1</v>
@@ -8176,7 +8173,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="B304" t="s">
         <v>22</v>
@@ -8185,7 +8182,7 @@
         <v>0</v>
       </c>
       <c r="D304" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F304">
         <v>1</v>
@@ -8193,7 +8190,7 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="B305" t="s">
         <v>22</v>
@@ -8202,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="D305" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F305">
         <v>1</v>
@@ -8210,7 +8207,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B306" t="s">
         <v>22</v>
@@ -8219,7 +8216,7 @@
         <v>0</v>
       </c>
       <c r="D306" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F306">
         <v>1</v>
@@ -8227,7 +8224,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B307" t="s">
         <v>22</v>
@@ -8236,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="D307" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F307">
         <v>1</v>
@@ -8244,41 +8241,41 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B308" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C308">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D308" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="F308">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="B309" t="s">
         <v>23</v>
       </c>
       <c r="C309">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D309" t="s">
         <v>20</v>
       </c>
       <c r="F309">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="B310" t="s">
         <v>23</v>
@@ -8295,7 +8292,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B311" t="s">
         <v>23</v>
@@ -8312,24 +8309,24 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="B312" t="s">
         <v>23</v>
       </c>
       <c r="C312">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D312" t="s">
         <v>20</v>
       </c>
       <c r="F312">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B313" t="s">
         <v>23</v>
@@ -8346,50 +8343,50 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B314" t="s">
         <v>23</v>
       </c>
       <c r="C314">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D314" t="s">
         <v>20</v>
       </c>
       <c r="F314">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="B315" t="s">
         <v>23</v>
       </c>
       <c r="C315">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D315" t="s">
         <v>20</v>
       </c>
       <c r="F315">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B316" t="s">
         <v>23</v>
       </c>
       <c r="C316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D316" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="F316">
         <v>1</v>
@@ -8397,7 +8394,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="B317" t="s">
         <v>23</v>
@@ -8406,7 +8403,7 @@
         <v>0</v>
       </c>
       <c r="D317" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F317">
         <v>1</v>
@@ -8414,7 +8411,7 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="B318" t="s">
         <v>23</v>
@@ -8423,7 +8420,7 @@
         <v>0</v>
       </c>
       <c r="D318" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F318">
         <v>1</v>
@@ -8431,7 +8428,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B319" t="s">
         <v>23</v>
@@ -8440,7 +8437,7 @@
         <v>0</v>
       </c>
       <c r="D319" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F319">
         <v>1</v>
@@ -8448,7 +8445,7 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B320" t="s">
         <v>23</v>
@@ -8457,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="D320" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F320">
         <v>1</v>
@@ -8465,41 +8462,41 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B321" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C321">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D321" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="F321">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="B322" t="s">
         <v>24</v>
       </c>
       <c r="C322">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D322" t="s">
         <v>20</v>
       </c>
       <c r="F322">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="B323" t="s">
         <v>24</v>
@@ -8516,7 +8513,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B324" t="s">
         <v>24</v>
@@ -8533,24 +8530,24 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="B325" t="s">
         <v>24</v>
       </c>
       <c r="C325">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D325" t="s">
         <v>20</v>
       </c>
       <c r="F325">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B326" t="s">
         <v>24</v>
@@ -8567,50 +8564,50 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B327" t="s">
         <v>24</v>
       </c>
       <c r="C327">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D327" t="s">
         <v>20</v>
       </c>
       <c r="F327">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="B328" t="s">
         <v>24</v>
       </c>
       <c r="C328">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D328" t="s">
         <v>20</v>
       </c>
       <c r="F328">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B329" t="s">
         <v>24</v>
       </c>
       <c r="C329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D329" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="F329">
         <v>1</v>
@@ -8618,7 +8615,7 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="B330" t="s">
         <v>24</v>
@@ -8627,7 +8624,7 @@
         <v>0</v>
       </c>
       <c r="D330" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F330">
         <v>1</v>
@@ -8635,7 +8632,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="B331" t="s">
         <v>24</v>
@@ -8644,7 +8641,7 @@
         <v>0</v>
       </c>
       <c r="D331" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F331">
         <v>1</v>
@@ -8652,7 +8649,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B332" t="s">
         <v>24</v>
@@ -8661,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="D332" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F332">
         <v>1</v>
@@ -8669,7 +8666,7 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B333" t="s">
         <v>24</v>
@@ -8678,7 +8675,7 @@
         <v>0</v>
       </c>
       <c r="D333" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F333">
         <v>1</v>
@@ -8686,41 +8683,41 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B334" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C334">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D334" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="F334">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="B335" t="s">
         <v>25</v>
       </c>
       <c r="C335">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D335" t="s">
         <v>20</v>
       </c>
       <c r="F335">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="B336" t="s">
         <v>25</v>
@@ -8737,7 +8734,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B337" t="s">
         <v>25</v>
@@ -8754,24 +8751,24 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="B338" t="s">
         <v>25</v>
       </c>
       <c r="C338">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D338" t="s">
         <v>20</v>
       </c>
       <c r="F338">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B339" t="s">
         <v>25</v>
@@ -8788,50 +8785,50 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B340" t="s">
         <v>25</v>
       </c>
       <c r="C340">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D340" t="s">
         <v>20</v>
       </c>
       <c r="F340">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="B341" t="s">
         <v>25</v>
       </c>
       <c r="C341">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D341" t="s">
         <v>20</v>
       </c>
       <c r="F341">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B342" t="s">
         <v>25</v>
       </c>
       <c r="C342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D342" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="F342">
         <v>1</v>
@@ -8839,7 +8836,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="B343" t="s">
         <v>25</v>
@@ -8848,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="D343" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F343">
         <v>1</v>
@@ -8856,7 +8853,7 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="B344" t="s">
         <v>25</v>
@@ -8865,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="D344" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F344">
         <v>1</v>
@@ -8873,7 +8870,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B345" t="s">
         <v>25</v>
@@ -8882,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="D345" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F345">
         <v>1</v>
@@ -8890,7 +8887,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B346" t="s">
         <v>25</v>
@@ -8899,7 +8896,7 @@
         <v>0</v>
       </c>
       <c r="D346" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F346">
         <v>1</v>
@@ -8907,41 +8904,41 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B347" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C347">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D347" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="F347">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="B348" t="s">
         <v>26</v>
       </c>
       <c r="C348">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D348" t="s">
         <v>20</v>
       </c>
       <c r="F348">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="B349" t="s">
         <v>26</v>
@@ -8958,7 +8955,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B350" t="s">
         <v>26</v>
@@ -8975,24 +8972,24 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="B351" t="s">
         <v>26</v>
       </c>
       <c r="C351">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D351" t="s">
         <v>20</v>
       </c>
       <c r="F351">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B352" t="s">
         <v>26</v>
@@ -9009,50 +9006,50 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B353" t="s">
         <v>26</v>
       </c>
       <c r="C353">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D353" t="s">
         <v>20</v>
       </c>
       <c r="F353">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="B354" t="s">
         <v>26</v>
       </c>
       <c r="C354">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D354" t="s">
         <v>20</v>
       </c>
       <c r="F354">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B355" t="s">
         <v>26</v>
       </c>
       <c r="C355">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D355" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="F355">
         <v>1</v>
@@ -9060,7 +9057,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="B356" t="s">
         <v>26</v>
@@ -9069,7 +9066,7 @@
         <v>0</v>
       </c>
       <c r="D356" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F356">
         <v>1</v>
@@ -9077,7 +9074,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="B357" t="s">
         <v>26</v>
@@ -9086,7 +9083,7 @@
         <v>0</v>
       </c>
       <c r="D357" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F357">
         <v>1</v>
@@ -9094,7 +9091,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B358" t="s">
         <v>26</v>
@@ -9103,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="D358" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F358">
         <v>1</v>
@@ -9111,7 +9108,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B359" t="s">
         <v>26</v>
@@ -9120,7 +9117,7 @@
         <v>0</v>
       </c>
       <c r="D359" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F359">
         <v>1</v>
@@ -9128,41 +9125,41 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B360" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C360">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D360" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="F360">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="B361" t="s">
         <v>27</v>
       </c>
       <c r="C361">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D361" t="s">
         <v>20</v>
       </c>
       <c r="F361">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="B362" t="s">
         <v>27</v>
@@ -9179,7 +9176,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B363" t="s">
         <v>27</v>
@@ -9196,24 +9193,24 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="B364" t="s">
         <v>27</v>
       </c>
       <c r="C364">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D364" t="s">
         <v>20</v>
       </c>
       <c r="F364">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B365" t="s">
         <v>27</v>
@@ -9230,50 +9227,50 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B366" t="s">
         <v>27</v>
       </c>
       <c r="C366">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D366" t="s">
         <v>20</v>
       </c>
       <c r="F366">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="B367" t="s">
         <v>27</v>
       </c>
       <c r="C367">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D367" t="s">
         <v>20</v>
       </c>
       <c r="F367">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B368" t="s">
         <v>27</v>
       </c>
       <c r="C368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D368" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="F368">
         <v>1</v>
@@ -9281,7 +9278,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="B369" t="s">
         <v>27</v>
@@ -9290,7 +9287,7 @@
         <v>0</v>
       </c>
       <c r="D369" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F369">
         <v>1</v>
@@ -9298,7 +9295,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="B370" t="s">
         <v>27</v>
@@ -9307,7 +9304,7 @@
         <v>0</v>
       </c>
       <c r="D370" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F370">
         <v>1</v>
@@ -9315,7 +9312,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B371" t="s">
         <v>27</v>
@@ -9324,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="D371" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F371">
         <v>1</v>
@@ -9332,7 +9329,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B372" t="s">
         <v>27</v>
@@ -9341,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="D372" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F372">
         <v>1</v>
@@ -9349,41 +9346,41 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B373" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C373">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D373" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="F373">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="B374" t="s">
         <v>28</v>
       </c>
       <c r="C374">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D374" t="s">
         <v>20</v>
       </c>
       <c r="F374">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="B375" t="s">
         <v>28</v>
@@ -9400,7 +9397,7 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B376" t="s">
         <v>28</v>
@@ -9417,24 +9414,24 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="B377" t="s">
         <v>28</v>
       </c>
       <c r="C377">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D377" t="s">
         <v>20</v>
       </c>
       <c r="F377">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B378" t="s">
         <v>28</v>
@@ -9451,50 +9448,50 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B379" t="s">
         <v>28</v>
       </c>
       <c r="C379">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D379" t="s">
         <v>20</v>
       </c>
       <c r="F379">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="B380" t="s">
         <v>28</v>
       </c>
       <c r="C380">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D380" t="s">
         <v>20</v>
       </c>
       <c r="F380">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B381" t="s">
         <v>28</v>
       </c>
       <c r="C381">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D381" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="F381">
         <v>1</v>
@@ -9502,7 +9499,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="B382" t="s">
         <v>28</v>
@@ -9511,7 +9508,7 @@
         <v>0</v>
       </c>
       <c r="D382" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F382">
         <v>1</v>
@@ -9519,7 +9516,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="B383" t="s">
         <v>28</v>
@@ -9528,7 +9525,7 @@
         <v>0</v>
       </c>
       <c r="D383" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F383">
         <v>1</v>
@@ -9536,7 +9533,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B384" t="s">
         <v>28</v>
@@ -9545,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="D384" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F384">
         <v>1</v>
@@ -9553,7 +9550,7 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B385" t="s">
         <v>28</v>
@@ -9562,7 +9559,7 @@
         <v>0</v>
       </c>
       <c r="D385" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F385">
         <v>1</v>
@@ -9570,41 +9567,41 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B386" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C386">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D386" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="F386">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="B387" t="s">
         <v>29</v>
       </c>
       <c r="C387">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D387" t="s">
         <v>20</v>
       </c>
       <c r="F387">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="B388" t="s">
         <v>29</v>
@@ -9621,7 +9618,7 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B389" t="s">
         <v>29</v>
@@ -9638,24 +9635,24 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="B390" t="s">
         <v>29</v>
       </c>
       <c r="C390">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D390" t="s">
         <v>20</v>
       </c>
       <c r="F390">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B391" t="s">
         <v>29</v>
@@ -9672,50 +9669,50 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B392" t="s">
         <v>29</v>
       </c>
       <c r="C392">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D392" t="s">
         <v>20</v>
       </c>
       <c r="F392">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="B393" t="s">
         <v>29</v>
       </c>
       <c r="C393">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D393" t="s">
         <v>20</v>
       </c>
       <c r="F393">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B394" t="s">
         <v>29</v>
       </c>
       <c r="C394">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D394" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="F394">
         <v>1</v>
@@ -9723,7 +9720,7 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="B395" t="s">
         <v>29</v>
@@ -9732,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="D395" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F395">
         <v>1</v>
@@ -9740,7 +9737,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="B396" t="s">
         <v>29</v>
@@ -9749,7 +9746,7 @@
         <v>0</v>
       </c>
       <c r="D396" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F396">
         <v>1</v>
@@ -9757,7 +9754,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B397" t="s">
         <v>29</v>
@@ -9766,7 +9763,7 @@
         <v>0</v>
       </c>
       <c r="D397" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F397">
         <v>1</v>
@@ -9774,7 +9771,7 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B398" t="s">
         <v>29</v>
@@ -9783,7 +9780,7 @@
         <v>0</v>
       </c>
       <c r="D398" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F398">
         <v>1</v>
@@ -9791,41 +9788,41 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B399" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C399">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D399" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="F399">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="B400" t="s">
         <v>30</v>
       </c>
       <c r="C400">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D400" t="s">
         <v>20</v>
       </c>
       <c r="F400">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="B401" t="s">
         <v>30</v>
@@ -9842,7 +9839,7 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B402" t="s">
         <v>30</v>
@@ -9859,24 +9856,24 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="B403" t="s">
         <v>30</v>
       </c>
       <c r="C403">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D403" t="s">
         <v>20</v>
       </c>
       <c r="F403">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B404" t="s">
         <v>30</v>
@@ -9893,50 +9890,50 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B405" t="s">
         <v>30</v>
       </c>
       <c r="C405">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D405" t="s">
         <v>20</v>
       </c>
       <c r="F405">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="B406" t="s">
         <v>30</v>
       </c>
       <c r="C406">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D406" t="s">
         <v>20</v>
       </c>
       <c r="F406">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B407" t="s">
         <v>30</v>
       </c>
       <c r="C407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D407" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="F407">
         <v>1</v>
@@ -9944,7 +9941,7 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="B408" t="s">
         <v>30</v>
@@ -9953,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="D408" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F408">
         <v>1</v>
@@ -9961,7 +9958,7 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="B409" t="s">
         <v>30</v>
@@ -9970,7 +9967,7 @@
         <v>0</v>
       </c>
       <c r="D409" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F409">
         <v>1</v>
@@ -9978,7 +9975,7 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B410" t="s">
         <v>30</v>
@@ -9987,7 +9984,7 @@
         <v>0</v>
       </c>
       <c r="D410" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F410">
         <v>1</v>
@@ -9995,7 +9992,7 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B411" t="s">
         <v>30</v>
@@ -10004,7 +10001,7 @@
         <v>0</v>
       </c>
       <c r="D411" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F411">
         <v>1</v>
@@ -10012,41 +10009,41 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B412" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C412">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D412" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="F412">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="B413" t="s">
         <v>31</v>
       </c>
       <c r="C413">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D413" t="s">
         <v>20</v>
       </c>
       <c r="F413">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="B414" t="s">
         <v>31</v>
@@ -10063,7 +10060,7 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B415" t="s">
         <v>31</v>
@@ -10080,24 +10077,24 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="B416" t="s">
         <v>31</v>
       </c>
       <c r="C416">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D416" t="s">
         <v>20</v>
       </c>
       <c r="F416">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B417" t="s">
         <v>31</v>
@@ -10114,50 +10111,50 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B418" t="s">
         <v>31</v>
       </c>
       <c r="C418">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D418" t="s">
         <v>20</v>
       </c>
       <c r="F418">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="B419" t="s">
         <v>31</v>
       </c>
       <c r="C419">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D419" t="s">
         <v>20</v>
       </c>
       <c r="F419">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B420" t="s">
         <v>31</v>
       </c>
       <c r="C420">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D420" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="F420">
         <v>1</v>
@@ -10165,7 +10162,7 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="B421" t="s">
         <v>31</v>
@@ -10174,7 +10171,7 @@
         <v>0</v>
       </c>
       <c r="D421" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F421">
         <v>1</v>
@@ -10182,7 +10179,7 @@
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="B422" t="s">
         <v>31</v>
@@ -10191,7 +10188,7 @@
         <v>0</v>
       </c>
       <c r="D422" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F422">
         <v>1</v>
@@ -10199,7 +10196,7 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B423" t="s">
         <v>31</v>
@@ -10208,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="D423" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F423">
         <v>1</v>
@@ -10216,7 +10213,7 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B424" t="s">
         <v>31</v>
@@ -10225,7 +10222,7 @@
         <v>0</v>
       </c>
       <c r="D424" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F424">
         <v>1</v>
@@ -10233,41 +10230,41 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B425" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C425">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D425" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="F425">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="B426" t="s">
         <v>32</v>
       </c>
       <c r="C426">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D426" t="s">
         <v>20</v>
       </c>
       <c r="F426">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="B427" t="s">
         <v>32</v>
@@ -10284,7 +10281,7 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B428" t="s">
         <v>32</v>
@@ -10301,24 +10298,24 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="B429" t="s">
         <v>32</v>
       </c>
       <c r="C429">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D429" t="s">
         <v>20</v>
       </c>
       <c r="F429">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B430" t="s">
         <v>32</v>
@@ -10335,50 +10332,50 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B431" t="s">
         <v>32</v>
       </c>
       <c r="C431">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D431" t="s">
         <v>20</v>
       </c>
       <c r="F431">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="B432" t="s">
         <v>32</v>
       </c>
       <c r="C432">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D432" t="s">
         <v>20</v>
       </c>
       <c r="F432">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B433" t="s">
         <v>32</v>
       </c>
       <c r="C433">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D433" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="F433">
         <v>1</v>
@@ -10386,7 +10383,7 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="B434" t="s">
         <v>32</v>
@@ -10395,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="D434" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F434">
         <v>1</v>
@@ -10403,7 +10400,7 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="B435" t="s">
         <v>32</v>
@@ -10412,7 +10409,7 @@
         <v>0</v>
       </c>
       <c r="D435" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F435">
         <v>1</v>
@@ -10420,7 +10417,7 @@
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B436" t="s">
         <v>32</v>
@@ -10429,7 +10426,7 @@
         <v>0</v>
       </c>
       <c r="D436" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F436">
         <v>1</v>
@@ -10437,7 +10434,7 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B437" t="s">
         <v>32</v>
@@ -10446,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="D437" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F437">
         <v>1</v>
@@ -10454,16 +10451,16 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B438" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C438">
         <v>0</v>
       </c>
       <c r="D438" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F438">
         <v>1</v>
@@ -10471,16 +10468,16 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="B439" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C439">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D439" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="F439">
         <v>1</v>
@@ -10488,7 +10485,7 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="B440" t="s">
         <v>47</v>
@@ -10505,41 +10502,41 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="B441" t="s">
         <v>47</v>
       </c>
       <c r="C441">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D441" t="s">
         <v>20</v>
       </c>
       <c r="F441">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="B442" t="s">
         <v>47</v>
       </c>
       <c r="C442">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D442" t="s">
         <v>20</v>
       </c>
       <c r="F442">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="B443" t="s">
         <v>47</v>
@@ -10556,7 +10553,7 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="B444" t="s">
         <v>47</v>
@@ -10573,7 +10570,7 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>210</v>
+        <v>106</v>
       </c>
       <c r="B445" t="s">
         <v>47</v>
@@ -10590,24 +10587,24 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B446" t="s">
         <v>47</v>
       </c>
       <c r="C446">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D446" t="s">
         <v>20</v>
       </c>
       <c r="F446">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="B447" t="s">
         <v>47</v>
@@ -10624,27 +10621,27 @@
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>133</v>
+        <v>220</v>
       </c>
       <c r="B448" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C448">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D448" t="s">
         <v>20</v>
       </c>
       <c r="F448">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B449" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C449">
         <v>1</v>
@@ -10658,27 +10655,27 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B450" t="s">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="C450">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D450" t="s">
         <v>20</v>
       </c>
       <c r="F450">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B451" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C451">
         <v>2</v>
@@ -10692,33 +10689,33 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>221</v>
+        <v>99</v>
       </c>
       <c r="B452" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C452">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D452" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F452">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B453" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C453">
         <v>1</v>
       </c>
       <c r="D453" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F453">
         <v>1</v>
@@ -10726,44 +10723,44 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>102</v>
+        <v>199</v>
       </c>
       <c r="B454" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C454">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D454" t="s">
         <v>20</v>
       </c>
       <c r="F454">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="B455" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C455">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D455" t="s">
         <v>20</v>
       </c>
       <c r="F455">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B456" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C456">
         <v>2</v>
@@ -10777,27 +10774,27 @@
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>221</v>
+        <v>99</v>
       </c>
       <c r="B457" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C457">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D457" t="s">
         <v>20</v>
       </c>
       <c r="F457">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B458" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C458">
         <v>1</v>
@@ -10811,78 +10808,78 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>102</v>
+        <v>199</v>
       </c>
       <c r="B459" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C459">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D459" t="s">
         <v>20</v>
       </c>
       <c r="F459">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="B460" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C460">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D460" t="s">
         <v>20</v>
       </c>
       <c r="F460">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="B461" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C461">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D461" t="s">
         <v>20</v>
       </c>
       <c r="F461">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="B462" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C462">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D462" t="s">
         <v>20</v>
       </c>
       <c r="F462">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>102</v>
+        <v>220</v>
       </c>
       <c r="B463" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C463">
         <v>1</v>
@@ -10896,44 +10893,44 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="B464" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C464">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D464" t="s">
         <v>20</v>
       </c>
       <c r="F464">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
       <c r="B465" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C465">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D465" t="s">
         <v>20</v>
       </c>
       <c r="F465">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="B466" t="s">
-        <v>241</v>
+        <v>36</v>
       </c>
       <c r="C466">
         <v>1</v>
@@ -10947,16 +10944,16 @@
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="B467" t="s">
         <v>36</v>
       </c>
       <c r="C467">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D467" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="F467">
         <v>1</v>
@@ -10964,16 +10961,16 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="B468" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C468">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D468" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="F468">
         <v>1</v>
@@ -10981,16 +10978,16 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="B469" t="s">
         <v>35</v>
       </c>
       <c r="C469">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D469" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="F469">
         <v>1</v>
@@ -10998,16 +10995,16 @@
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B470" t="s">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="C470">
         <v>0</v>
       </c>
       <c r="D470" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F470">
         <v>1</v>
@@ -11015,16 +11012,16 @@
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B471" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C471">
         <v>0</v>
       </c>
       <c r="D471" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F471">
         <v>1</v>
@@ -11032,35 +11029,18 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="B472" t="s">
-        <v>243</v>
+        <v>72</v>
       </c>
       <c r="C472">
         <v>0</v>
       </c>
       <c r="D472" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="F472">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A473" t="s">
-        <v>77</v>
-      </c>
-      <c r="B473" t="s">
-        <v>72</v>
-      </c>
-      <c r="C473">
-        <v>0</v>
-      </c>
-      <c r="D473" t="s">
-        <v>20</v>
-      </c>
-      <c r="F473">
         <v>1</v>
       </c>
     </row>

--- a/assets/template_aset.xlsx
+++ b/assets/template_aset.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f91c3f0a4e21427/Dokumen/Project/Aset/SNTZ/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="8_{72EA28B3-6C54-4F49-8A76-1BCFAE7EC634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F9BCEA6-1B01-491B-8BAE-26BEFAA7A239}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="8_{72EA28B3-6C54-4F49-8A76-1BCFAE7EC634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29E56368-5A5A-4591-84A8-1B7E1A207346}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{4863C22B-E61A-4FF8-97E8-02492FE08DBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4863C22B-E61A-4FF8-97E8-02492FE08DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Bangunan" sheetId="1" r:id="rId1"/>
     <sheet name="Ruangan" sheetId="2" r:id="rId2"/>
     <sheet name="Barang" sheetId="4" r:id="rId3"/>
     <sheet name="Aset" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Aset!$A$1:$H$472</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="255">
   <si>
     <t>nama_bangunan</t>
   </si>
@@ -775,6 +776,39 @@
   </si>
   <si>
     <t>Sendok Makan</t>
+  </si>
+  <si>
+    <t>Kamar Mandi Pria 1</t>
+  </si>
+  <si>
+    <t>Kamar Mandi Pria 2</t>
+  </si>
+  <si>
+    <t>Kamar Mandi Pria 3</t>
+  </si>
+  <si>
+    <t>Pantry 2</t>
+  </si>
+  <si>
+    <t>Pantry 1</t>
+  </si>
+  <si>
+    <t>Tempat Cuci 2</t>
+  </si>
+  <si>
+    <t>Tempat Cuci 1</t>
+  </si>
+  <si>
+    <t>Tempat Setrika 2</t>
+  </si>
+  <si>
+    <t>Tempat Setrika 1</t>
+  </si>
+  <si>
+    <t>Gudang Mess 2</t>
+  </si>
+  <si>
+    <t>Gudang Mess 1</t>
   </si>
 </sst>
 </file>
@@ -839,6 +873,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1214,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD255CE-C360-4F10-85B7-512FD58F232B}">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,7 +1441,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>247</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>1</v>
@@ -1411,7 +1449,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>248</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>1</v>
@@ -1419,7 +1457,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>249</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>1</v>
@@ -1427,7 +1465,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>1</v>
@@ -1435,7 +1473,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>251</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>1</v>
@@ -1443,7 +1481,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>1</v>
@@ -1451,7 +1489,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>253</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>1</v>
@@ -1459,7 +1497,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>254</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>1</v>
@@ -1467,7 +1505,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>1</v>
@@ -1475,7 +1513,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>1</v>
@@ -1483,7 +1521,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>245</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>1</v>
@@ -1491,7 +1529,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>238</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>1</v>
@@ -1499,7 +1537,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>1</v>
@@ -1755,8 +1793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED355CB-27E0-4A32-B3BC-8C1EA4DEE525}">
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3119,10 +3157,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8943D4-7C6B-4B65-A4D9-D15AF6DAD928}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B470" sqref="B470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3157,7 +3196,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>154</v>
       </c>
@@ -3177,7 +3216,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>140</v>
       </c>
@@ -3197,7 +3236,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>152</v>
       </c>
@@ -3217,7 +3256,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -3234,7 +3273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>181</v>
       </c>
@@ -3251,7 +3290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -3268,7 +3307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>185</v>
       </c>
@@ -3285,7 +3324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>201</v>
       </c>
@@ -3302,7 +3341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -3319,7 +3358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -3336,7 +3375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -3353,7 +3392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>155</v>
       </c>
@@ -3370,7 +3409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>85</v>
       </c>
@@ -3387,7 +3426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -3404,7 +3443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>161</v>
       </c>
@@ -3421,7 +3460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>138</v>
       </c>
@@ -3438,7 +3477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -3455,7 +3494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>185</v>
       </c>
@@ -3472,7 +3511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -3489,7 +3528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -3506,7 +3545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>99</v>
       </c>
@@ -3523,7 +3562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -3540,7 +3579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>200</v>
       </c>
@@ -3557,7 +3596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -3574,7 +3613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -3591,7 +3630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>169</v>
       </c>
@@ -3608,7 +3647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>85</v>
       </c>
@@ -3625,7 +3664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>91</v>
       </c>
@@ -3642,7 +3681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -3659,7 +3698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>201</v>
       </c>
@@ -3676,7 +3715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>120</v>
       </c>
@@ -3693,7 +3732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>185</v>
       </c>
@@ -3710,7 +3749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -3724,7 +3763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>208</v>
       </c>
@@ -3738,7 +3777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>132</v>
       </c>
@@ -3752,7 +3791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>123</v>
       </c>
@@ -3769,7 +3808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -3783,7 +3822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>170</v>
       </c>
@@ -3797,7 +3836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>110</v>
       </c>
@@ -3811,7 +3850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -3825,7 +3864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>163</v>
       </c>
@@ -3839,7 +3878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>154</v>
       </c>
@@ -3853,7 +3892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>138</v>
       </c>
@@ -3867,7 +3906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>123</v>
       </c>
@@ -3881,7 +3920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>136</v>
       </c>
@@ -3895,7 +3934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>150</v>
       </c>
@@ -3909,7 +3948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>120</v>
       </c>
@@ -3926,7 +3965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>185</v>
       </c>
@@ -3943,7 +3982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>90</v>
       </c>
@@ -3957,7 +3996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>169</v>
       </c>
@@ -3971,7 +4010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>201</v>
       </c>
@@ -3988,7 +4027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>138</v>
       </c>
@@ -4002,7 +4041,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>204</v>
       </c>
@@ -4019,7 +4058,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -4033,7 +4072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>170</v>
       </c>
@@ -4047,7 +4086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -4061,7 +4100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>80</v>
       </c>
@@ -4075,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>163</v>
       </c>
@@ -4089,7 +4128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>152</v>
       </c>
@@ -4103,7 +4142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>221</v>
       </c>
@@ -4117,7 +4156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>154</v>
       </c>
@@ -4131,7 +4170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>138</v>
       </c>
@@ -4145,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>123</v>
       </c>
@@ -4162,7 +4201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>136</v>
       </c>
@@ -4176,7 +4215,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>150</v>
       </c>
@@ -4190,7 +4229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>120</v>
       </c>
@@ -4207,7 +4246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>185</v>
       </c>
@@ -4224,7 +4263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>90</v>
       </c>
@@ -4238,7 +4277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>149</v>
       </c>
@@ -4255,7 +4294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>138</v>
       </c>
@@ -4269,7 +4308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>201</v>
       </c>
@@ -4286,7 +4325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>155</v>
       </c>
@@ -4300,7 +4339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>99</v>
       </c>
@@ -4314,7 +4353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>102</v>
       </c>
@@ -4328,7 +4367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>219</v>
       </c>
@@ -4342,7 +4381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>220</v>
       </c>
@@ -4356,7 +4395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -4370,7 +4409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>99</v>
       </c>
@@ -4384,7 +4423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>102</v>
       </c>
@@ -4398,7 +4437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>220</v>
       </c>
@@ -4412,7 +4451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>76</v>
       </c>
@@ -4429,7 +4468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>109</v>
       </c>
@@ -4446,7 +4485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>120</v>
       </c>
@@ -4463,7 +4502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>185</v>
       </c>
@@ -4480,7 +4519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>220</v>
       </c>
@@ -4497,7 +4536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>114</v>
       </c>
@@ -4514,7 +4553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>13</v>
       </c>
@@ -4531,7 +4570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>112</v>
       </c>
@@ -4548,7 +4587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>184</v>
       </c>
@@ -4565,7 +4604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>120</v>
       </c>
@@ -4582,7 +4621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>186</v>
       </c>
@@ -4599,7 +4638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>201</v>
       </c>
@@ -4616,7 +4655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>82</v>
       </c>
@@ -4633,7 +4672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>220</v>
       </c>
@@ -4650,7 +4689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>220</v>
       </c>
@@ -4667,7 +4706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -4684,7 +4723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>102</v>
       </c>
@@ -4701,7 +4740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>109</v>
       </c>
@@ -4718,7 +4757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>88</v>
       </c>
@@ -4735,7 +4774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>95</v>
       </c>
@@ -4752,7 +4791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>97</v>
       </c>
@@ -4769,7 +4808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>194</v>
       </c>
@@ -4786,7 +4825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -4803,7 +4842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -4820,7 +4859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -4837,7 +4876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>117</v>
       </c>
@@ -4854,7 +4893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>118</v>
       </c>
@@ -4871,7 +4910,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>127</v>
       </c>
@@ -4888,7 +4927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>128</v>
       </c>
@@ -4905,7 +4944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>144</v>
       </c>
@@ -4922,7 +4961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>145</v>
       </c>
@@ -4939,7 +4978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>147</v>
       </c>
@@ -4956,7 +4995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>146</v>
       </c>
@@ -4973,7 +5012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>165</v>
       </c>
@@ -4990,7 +5029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>166</v>
       </c>
@@ -5007,7 +5046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>167</v>
       </c>
@@ -5024,7 +5063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -5041,7 +5080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>173</v>
       </c>
@@ -5058,7 +5097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>178</v>
       </c>
@@ -5075,7 +5114,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>175</v>
       </c>
@@ -5092,7 +5131,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>175</v>
       </c>
@@ -5109,7 +5148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>179</v>
       </c>
@@ -5126,7 +5165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>183</v>
       </c>
@@ -5143,7 +5182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>188</v>
       </c>
@@ -5160,7 +5199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>193</v>
       </c>
@@ -5177,7 +5216,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>197</v>
       </c>
@@ -5194,7 +5233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>189</v>
       </c>
@@ -5211,7 +5250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>205</v>
       </c>
@@ -5228,7 +5267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -5245,7 +5284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>135</v>
       </c>
@@ -5262,7 +5301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>204</v>
       </c>
@@ -5279,7 +5318,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>196</v>
       </c>
@@ -5296,7 +5335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>148</v>
       </c>
@@ -5313,7 +5352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>216</v>
       </c>
@@ -5330,7 +5369,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>176</v>
       </c>
@@ -5347,7 +5386,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>180</v>
       </c>
@@ -5364,7 +5403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>187</v>
       </c>
@@ -5381,7 +5420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>190</v>
       </c>
@@ -5398,7 +5437,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>195</v>
       </c>
@@ -5415,7 +5454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>206</v>
       </c>
@@ -5432,7 +5471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>207</v>
       </c>
@@ -5449,7 +5488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>213</v>
       </c>
@@ -5466,7 +5505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>217</v>
       </c>
@@ -5483,7 +5522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>192</v>
       </c>
@@ -5500,7 +5539,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>196</v>
       </c>
@@ -5517,7 +5556,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>191</v>
       </c>
@@ -5534,7 +5573,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>178</v>
       </c>
@@ -5548,7 +5587,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>243</v>
       </c>
@@ -5562,7 +5601,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>115</v>
       </c>
@@ -5576,7 +5615,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>116</v>
       </c>
@@ -5593,7 +5632,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>206</v>
       </c>
@@ -5610,7 +5649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>213</v>
       </c>
@@ -5627,7 +5666,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>214</v>
       </c>
@@ -5644,7 +5683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>177</v>
       </c>
@@ -5661,7 +5700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>147</v>
       </c>
@@ -5678,7 +5717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>146</v>
       </c>
@@ -5695,7 +5734,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>209</v>
       </c>
@@ -5712,7 +5751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>210</v>
       </c>
@@ -5729,7 +5768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>148</v>
       </c>
@@ -5743,7 +5782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>174</v>
       </c>
@@ -5760,7 +5799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>215</v>
       </c>
@@ -5774,7 +5813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>212</v>
       </c>
@@ -5791,7 +5830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>130</v>
       </c>
@@ -5808,7 +5847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>106</v>
       </c>
@@ -5825,7 +5864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>123</v>
       </c>
@@ -5842,7 +5881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>218</v>
       </c>
@@ -5859,7 +5898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>120</v>
       </c>
@@ -5876,7 +5915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>185</v>
       </c>
@@ -5893,7 +5932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>208</v>
       </c>
@@ -5910,7 +5949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>90</v>
       </c>
@@ -5927,7 +5966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>85</v>
       </c>
@@ -5944,7 +5983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>156</v>
       </c>
@@ -5961,7 +6000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>157</v>
       </c>
@@ -5978,7 +6017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>138</v>
       </c>
@@ -5995,7 +6034,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>202</v>
       </c>
@@ -6012,7 +6051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>203</v>
       </c>
@@ -6029,7 +6068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>211</v>
       </c>
@@ -6046,7 +6085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>126</v>
       </c>
@@ -6063,7 +6102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>92</v>
       </c>
@@ -6080,7 +6119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>122</v>
       </c>
@@ -6097,7 +6136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>158</v>
       </c>
@@ -6114,7 +6153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>155</v>
       </c>
@@ -6131,7 +6170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>143</v>
       </c>
@@ -6148,7 +6187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>76</v>
       </c>
@@ -6165,7 +6204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>120</v>
       </c>
@@ -6182,7 +6221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -6199,7 +6238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>134</v>
       </c>
@@ -6216,7 +6255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>124</v>
       </c>
@@ -6233,7 +6272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>129</v>
       </c>
@@ -6250,7 +6289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>211</v>
       </c>
@@ -6267,7 +6306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>126</v>
       </c>
@@ -6284,7 +6323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>92</v>
       </c>
@@ -6301,7 +6340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>122</v>
       </c>
@@ -6318,7 +6357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>158</v>
       </c>
@@ -6335,7 +6374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>155</v>
       </c>
@@ -6352,7 +6391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>143</v>
       </c>
@@ -6369,7 +6408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>76</v>
       </c>
@@ -6386,7 +6425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>120</v>
       </c>
@@ -6403,7 +6442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>186</v>
       </c>
@@ -6420,7 +6459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>134</v>
       </c>
@@ -6437,7 +6476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>124</v>
       </c>
@@ -6454,7 +6493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>129</v>
       </c>
@@ -6471,7 +6510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>211</v>
       </c>
@@ -6488,7 +6527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>126</v>
       </c>
@@ -6505,7 +6544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>92</v>
       </c>
@@ -6522,7 +6561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>122</v>
       </c>
@@ -6539,7 +6578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>158</v>
       </c>
@@ -6556,7 +6595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>155</v>
       </c>
@@ -6573,7 +6612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>143</v>
       </c>
@@ -6590,7 +6629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>76</v>
       </c>
@@ -6607,7 +6646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>120</v>
       </c>
@@ -6624,7 +6663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>186</v>
       </c>
@@ -6641,7 +6680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>134</v>
       </c>
@@ -6658,7 +6697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>124</v>
       </c>
@@ -6675,7 +6714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>129</v>
       </c>
@@ -6692,7 +6731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>211</v>
       </c>
@@ -6709,7 +6748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>126</v>
       </c>
@@ -6726,7 +6765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>92</v>
       </c>
@@ -6743,7 +6782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>122</v>
       </c>
@@ -6760,7 +6799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>158</v>
       </c>
@@ -6777,7 +6816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>155</v>
       </c>
@@ -6794,7 +6833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>143</v>
       </c>
@@ -6811,7 +6850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>76</v>
       </c>
@@ -6828,7 +6867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>120</v>
       </c>
@@ -6845,7 +6884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>186</v>
       </c>
@@ -6862,7 +6901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>134</v>
       </c>
@@ -6879,7 +6918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>124</v>
       </c>
@@ -6896,7 +6935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>129</v>
       </c>
@@ -6913,7 +6952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>211</v>
       </c>
@@ -6930,7 +6969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>126</v>
       </c>
@@ -6947,7 +6986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>92</v>
       </c>
@@ -6964,7 +7003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>122</v>
       </c>
@@ -6981,7 +7020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>158</v>
       </c>
@@ -6998,7 +7037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>155</v>
       </c>
@@ -7015,7 +7054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>143</v>
       </c>
@@ -7032,7 +7071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>76</v>
       </c>
@@ -7049,7 +7088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>120</v>
       </c>
@@ -7066,7 +7105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>186</v>
       </c>
@@ -7083,7 +7122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>134</v>
       </c>
@@ -7100,7 +7139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>124</v>
       </c>
@@ -7117,7 +7156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>129</v>
       </c>
@@ -7134,7 +7173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>211</v>
       </c>
@@ -7151,7 +7190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>126</v>
       </c>
@@ -7168,7 +7207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>92</v>
       </c>
@@ -7185,7 +7224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>122</v>
       </c>
@@ -7202,7 +7241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>158</v>
       </c>
@@ -7219,7 +7258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>155</v>
       </c>
@@ -7236,7 +7275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>143</v>
       </c>
@@ -7253,7 +7292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>76</v>
       </c>
@@ -7270,7 +7309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>120</v>
       </c>
@@ -7287,7 +7326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>186</v>
       </c>
@@ -7304,7 +7343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>134</v>
       </c>
@@ -7321,7 +7360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>124</v>
       </c>
@@ -7338,7 +7377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>129</v>
       </c>
@@ -7355,7 +7394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>211</v>
       </c>
@@ -7372,7 +7411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>126</v>
       </c>
@@ -7389,7 +7428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>92</v>
       </c>
@@ -7406,7 +7445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>122</v>
       </c>
@@ -7423,7 +7462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>158</v>
       </c>
@@ -7440,7 +7479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>155</v>
       </c>
@@ -7457,7 +7496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>143</v>
       </c>
@@ -7474,7 +7513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>76</v>
       </c>
@@ -7491,7 +7530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>120</v>
       </c>
@@ -7508,7 +7547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>186</v>
       </c>
@@ -7525,7 +7564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>134</v>
       </c>
@@ -7542,7 +7581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>124</v>
       </c>
@@ -7559,7 +7598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>129</v>
       </c>
@@ -7576,7 +7615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>211</v>
       </c>
@@ -7593,7 +7632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>126</v>
       </c>
@@ -7610,7 +7649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>92</v>
       </c>
@@ -7627,7 +7666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>122</v>
       </c>
@@ -7644,7 +7683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>158</v>
       </c>
@@ -7661,7 +7700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>155</v>
       </c>
@@ -7678,7 +7717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>143</v>
       </c>
@@ -7695,7 +7734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>76</v>
       </c>
@@ -7712,7 +7751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>120</v>
       </c>
@@ -7729,7 +7768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>186</v>
       </c>
@@ -7746,7 +7785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>134</v>
       </c>
@@ -7763,7 +7802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>124</v>
       </c>
@@ -7780,7 +7819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>129</v>
       </c>
@@ -7797,7 +7836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>211</v>
       </c>
@@ -7814,7 +7853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>126</v>
       </c>
@@ -7831,7 +7870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>92</v>
       </c>
@@ -7848,7 +7887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>122</v>
       </c>
@@ -7865,7 +7904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>158</v>
       </c>
@@ -7882,7 +7921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>155</v>
       </c>
@@ -7899,7 +7938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>143</v>
       </c>
@@ -7916,7 +7955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>76</v>
       </c>
@@ -7933,7 +7972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>120</v>
       </c>
@@ -7950,7 +7989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>186</v>
       </c>
@@ -7967,7 +8006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>134</v>
       </c>
@@ -7984,7 +8023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>124</v>
       </c>
@@ -8001,7 +8040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>129</v>
       </c>
@@ -8018,7 +8057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>211</v>
       </c>
@@ -8035,7 +8074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>126</v>
       </c>
@@ -8052,7 +8091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>92</v>
       </c>
@@ -8069,7 +8108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>122</v>
       </c>
@@ -8086,7 +8125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>158</v>
       </c>
@@ -8103,7 +8142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>155</v>
       </c>
@@ -8120,7 +8159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>143</v>
       </c>
@@ -8137,7 +8176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>76</v>
       </c>
@@ -8154,7 +8193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>120</v>
       </c>
@@ -8171,7 +8210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>186</v>
       </c>
@@ -8188,7 +8227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>134</v>
       </c>
@@ -8205,7 +8244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>124</v>
       </c>
@@ -8222,7 +8261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>129</v>
       </c>
@@ -8239,7 +8278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>211</v>
       </c>
@@ -8256,7 +8295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>126</v>
       </c>
@@ -8273,7 +8312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>92</v>
       </c>
@@ -8290,7 +8329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>122</v>
       </c>
@@ -8307,7 +8346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>158</v>
       </c>
@@ -8324,7 +8363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>155</v>
       </c>
@@ -8341,7 +8380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>143</v>
       </c>
@@ -8358,7 +8397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>76</v>
       </c>
@@ -8375,7 +8414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>120</v>
       </c>
@@ -8392,7 +8431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>186</v>
       </c>
@@ -8409,7 +8448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>134</v>
       </c>
@@ -8426,7 +8465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>124</v>
       </c>
@@ -8443,7 +8482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>129</v>
       </c>
@@ -8460,7 +8499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>211</v>
       </c>
@@ -8477,7 +8516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>126</v>
       </c>
@@ -8494,7 +8533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>92</v>
       </c>
@@ -8511,7 +8550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>122</v>
       </c>
@@ -8528,7 +8567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>158</v>
       </c>
@@ -8545,7 +8584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>155</v>
       </c>
@@ -8562,7 +8601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>143</v>
       </c>
@@ -8579,7 +8618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>76</v>
       </c>
@@ -8596,7 +8635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>120</v>
       </c>
@@ -8613,7 +8652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>186</v>
       </c>
@@ -8630,7 +8669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>134</v>
       </c>
@@ -8647,7 +8686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>124</v>
       </c>
@@ -8664,7 +8703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>129</v>
       </c>
@@ -8681,7 +8720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>211</v>
       </c>
@@ -8698,7 +8737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>126</v>
       </c>
@@ -8715,7 +8754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>92</v>
       </c>
@@ -8732,7 +8771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>122</v>
       </c>
@@ -8749,7 +8788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>158</v>
       </c>
@@ -8766,7 +8805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>155</v>
       </c>
@@ -8783,7 +8822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>143</v>
       </c>
@@ -8800,7 +8839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>76</v>
       </c>
@@ -8817,7 +8856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>120</v>
       </c>
@@ -8834,7 +8873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>186</v>
       </c>
@@ -8851,7 +8890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>134</v>
       </c>
@@ -8868,7 +8907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>124</v>
       </c>
@@ -8885,7 +8924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>129</v>
       </c>
@@ -8902,7 +8941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>211</v>
       </c>
@@ -8919,7 +8958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>126</v>
       </c>
@@ -8936,7 +8975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>92</v>
       </c>
@@ -8953,7 +8992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>122</v>
       </c>
@@ -8970,7 +9009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>158</v>
       </c>
@@ -8987,7 +9026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>155</v>
       </c>
@@ -9004,7 +9043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>143</v>
       </c>
@@ -9021,7 +9060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>76</v>
       </c>
@@ -9038,7 +9077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>120</v>
       </c>
@@ -9055,7 +9094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>186</v>
       </c>
@@ -9072,7 +9111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>134</v>
       </c>
@@ -9089,7 +9128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>124</v>
       </c>
@@ -9106,7 +9145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>129</v>
       </c>
@@ -9123,7 +9162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>211</v>
       </c>
@@ -9140,7 +9179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>126</v>
       </c>
@@ -9157,7 +9196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>92</v>
       </c>
@@ -9174,7 +9213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>122</v>
       </c>
@@ -9191,7 +9230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>158</v>
       </c>
@@ -9208,7 +9247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>155</v>
       </c>
@@ -9225,7 +9264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>143</v>
       </c>
@@ -9242,7 +9281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>76</v>
       </c>
@@ -9259,7 +9298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>120</v>
       </c>
@@ -9276,7 +9315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>186</v>
       </c>
@@ -9293,7 +9332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>134</v>
       </c>
@@ -9310,7 +9349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>124</v>
       </c>
@@ -9327,7 +9366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>129</v>
       </c>
@@ -9344,7 +9383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>211</v>
       </c>
@@ -9361,7 +9400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>126</v>
       </c>
@@ -9378,7 +9417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>92</v>
       </c>
@@ -9395,7 +9434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>122</v>
       </c>
@@ -9412,7 +9451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>158</v>
       </c>
@@ -9429,7 +9468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>155</v>
       </c>
@@ -9446,7 +9485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>143</v>
       </c>
@@ -9463,7 +9502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>76</v>
       </c>
@@ -9480,7 +9519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>120</v>
       </c>
@@ -9497,7 +9536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>186</v>
       </c>
@@ -9514,7 +9553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>134</v>
       </c>
@@ -9531,7 +9570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>124</v>
       </c>
@@ -9548,7 +9587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>129</v>
       </c>
@@ -9565,7 +9604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>211</v>
       </c>
@@ -9582,7 +9621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>126</v>
       </c>
@@ -9599,7 +9638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>92</v>
       </c>
@@ -9616,7 +9655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>122</v>
       </c>
@@ -9633,7 +9672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>158</v>
       </c>
@@ -9650,7 +9689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>155</v>
       </c>
@@ -9667,7 +9706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>143</v>
       </c>
@@ -9684,7 +9723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>76</v>
       </c>
@@ -9701,7 +9740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>120</v>
       </c>
@@ -9718,7 +9757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>186</v>
       </c>
@@ -9735,7 +9774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>134</v>
       </c>
@@ -9752,7 +9791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>124</v>
       </c>
@@ -9769,7 +9808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>129</v>
       </c>
@@ -9786,7 +9825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>211</v>
       </c>
@@ -9803,7 +9842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>126</v>
       </c>
@@ -9820,7 +9859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>92</v>
       </c>
@@ -9837,7 +9876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>122</v>
       </c>
@@ -9854,7 +9893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>158</v>
       </c>
@@ -9871,7 +9910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>155</v>
       </c>
@@ -9888,7 +9927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>143</v>
       </c>
@@ -9905,7 +9944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>76</v>
       </c>
@@ -9922,7 +9961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>120</v>
       </c>
@@ -9939,7 +9978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>186</v>
       </c>
@@ -9956,7 +9995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>134</v>
       </c>
@@ -9973,7 +10012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>124</v>
       </c>
@@ -9990,7 +10029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>129</v>
       </c>
@@ -10007,7 +10046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>211</v>
       </c>
@@ -10024,7 +10063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>126</v>
       </c>
@@ -10041,7 +10080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>92</v>
       </c>
@@ -10058,7 +10097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>122</v>
       </c>
@@ -10075,7 +10114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>158</v>
       </c>
@@ -10092,7 +10131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>155</v>
       </c>
@@ -10109,7 +10148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>143</v>
       </c>
@@ -10126,7 +10165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>76</v>
       </c>
@@ -10143,7 +10182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>120</v>
       </c>
@@ -10160,7 +10199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>186</v>
       </c>
@@ -10177,7 +10216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>134</v>
       </c>
@@ -10194,7 +10233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>124</v>
       </c>
@@ -10211,7 +10250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>129</v>
       </c>
@@ -10228,7 +10267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>211</v>
       </c>
@@ -10245,7 +10284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>126</v>
       </c>
@@ -10262,7 +10301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>92</v>
       </c>
@@ -10279,7 +10318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>122</v>
       </c>
@@ -10296,7 +10335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>158</v>
       </c>
@@ -10313,7 +10352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>155</v>
       </c>
@@ -10330,7 +10369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>143</v>
       </c>
@@ -10347,7 +10386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>76</v>
       </c>
@@ -10364,7 +10403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>120</v>
       </c>
@@ -10381,7 +10420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>186</v>
       </c>
@@ -10398,7 +10437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>134</v>
       </c>
@@ -10415,7 +10454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>124</v>
       </c>
@@ -10432,7 +10471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>129</v>
       </c>
@@ -10449,7 +10488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>125</v>
       </c>
@@ -10466,7 +10505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>200</v>
       </c>
@@ -10483,7 +10522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>154</v>
       </c>
@@ -10500,7 +10539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>138</v>
       </c>
@@ -10517,7 +10556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>218</v>
       </c>
@@ -10534,7 +10573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>171</v>
       </c>
@@ -10551,7 +10590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>208</v>
       </c>
@@ -10568,7 +10607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>106</v>
       </c>
@@ -10585,7 +10624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>82</v>
       </c>
@@ -10602,7 +10641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>132</v>
       </c>
@@ -10619,7 +10658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>220</v>
       </c>
@@ -10636,7 +10675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>220</v>
       </c>
@@ -10653,7 +10692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>220</v>
       </c>
@@ -10670,7 +10709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>219</v>
       </c>
@@ -10687,7 +10726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>99</v>
       </c>
@@ -10704,7 +10743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>102</v>
       </c>
@@ -10721,7 +10760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>199</v>
       </c>
@@ -10738,7 +10777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>220</v>
       </c>
@@ -10755,7 +10794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>219</v>
       </c>
@@ -10772,7 +10811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>99</v>
       </c>
@@ -10789,7 +10828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>102</v>
       </c>
@@ -10806,7 +10845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>199</v>
       </c>
@@ -10823,7 +10862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>220</v>
       </c>
@@ -10840,7 +10879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>199</v>
       </c>
@@ -10857,7 +10896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>102</v>
       </c>
@@ -10874,7 +10913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>220</v>
       </c>
@@ -10891,7 +10930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>199</v>
       </c>
@@ -10908,7 +10947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>99</v>
       </c>
@@ -11027,7 +11066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>77</v>
       </c>
@@ -11042,6 +11081,884 @@
       </c>
       <c r="F472">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H472" xr:uid="{0A8943D4-7C6B-4B65-A4D9-D15AF6DAD928}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Tempat Cuci Barat"/>
+        <filter val="Tempat Cuci Timur"/>
+        <filter val="Tempat Setrika Barat"/>
+        <filter val="Tempat Setrika Timur"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1352EF63-060E-4EBD-BDEC-95ADB3111C5B}">
+  <dimension ref="A1:E63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" zoomScale="102" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1">
+        <f>VLOOKUP(Ruangan!A2,$A$1:$B$47,2,0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP(Ruangan!A3,$A$1:$B$47,2,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E3">
+        <f>VLOOKUP(Ruangan!A4,$A$1:$B$47,2,0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4">
+        <f>VLOOKUP(Ruangan!A5,$A$1:$B$47,2,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5">
+        <f>VLOOKUP(Ruangan!A6,$A$1:$B$47,2,0)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6">
+        <f>VLOOKUP(Ruangan!A7,$A$1:$B$47,2,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7">
+        <f>VLOOKUP(Ruangan!A8,$A$1:$B$47,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8">
+        <f>VLOOKUP(Ruangan!A9,$A$1:$B$47,2,0)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9">
+        <f>VLOOKUP(Ruangan!A10,$A$1:$B$47,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <f>VLOOKUP(Ruangan!A11,$A$1:$B$47,2,0)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <f>VLOOKUP(Ruangan!A12,$A$1:$B$47,2,0)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <f>VLOOKUP(Ruangan!A13,$A$1:$B$47,2,0)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <f>VLOOKUP(Ruangan!A14,$A$1:$B$47,2,0)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <f>VLOOKUP(Ruangan!A15,$A$1:$B$47,2,0)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <f>VLOOKUP(Ruangan!A16,$A$1:$B$47,2,0)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16">
+        <f>VLOOKUP(Ruangan!A17,$A$1:$B$47,2,0)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17">
+        <f>VLOOKUP(Ruangan!A18,$A$1:$B$47,2,0)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <f>VLOOKUP(Ruangan!A19,$A$1:$B$47,2,0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19">
+        <f>VLOOKUP(Ruangan!A20,$A$1:$B$47,2,0)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20">
+        <f>VLOOKUP(Ruangan!A21,$A$1:$B$47,2,0)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="e">
+        <f>VLOOKUP(Ruangan!A22,$A$1:$B$47,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="e">
+        <f>VLOOKUP(Ruangan!A23,$A$1:$B$47,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" t="e">
+        <f>VLOOKUP(Ruangan!A24,$A$1:$B$47,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" t="e">
+        <f>VLOOKUP(Ruangan!A25,$A$1:$B$47,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="e">
+        <f>VLOOKUP(Ruangan!A26,$A$1:$B$47,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="e">
+        <f>VLOOKUP(Ruangan!A27,$A$1:$B$47,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="e">
+        <f>VLOOKUP(Ruangan!A28,$A$1:$B$47,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" t="e">
+        <f>VLOOKUP(Ruangan!A29,$A$1:$B$47,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" t="e">
+        <f>VLOOKUP(Ruangan!A30,$A$1:$B$47,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" t="e">
+        <f>VLOOKUP(Ruangan!A31,$A$1:$B$47,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" t="e">
+        <f>VLOOKUP(Ruangan!A32,$A$1:$B$47,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32">
+        <f>VLOOKUP(Ruangan!A33,$A$1:$B$47,2,0)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33">
+        <f>VLOOKUP(Ruangan!A34,$A$1:$B$47,2,0)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>34</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34">
+        <f>VLOOKUP(Ruangan!A35,$A$1:$B$47,2,0)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35">
+        <f>VLOOKUP(Ruangan!A36,$A$1:$B$47,2,0)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" t="e">
+        <f>VLOOKUP(Ruangan!A37,$A$1:$B$47,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" t="e">
+        <f>VLOOKUP(Ruangan!A38,$A$1:$B$47,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" t="e">
+        <f>VLOOKUP(Ruangan!A39,$A$1:$B$47,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>236</v>
+      </c>
+      <c r="B39">
+        <v>39</v>
+      </c>
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" t="e">
+        <f>VLOOKUP(Ruangan!A40,$A$1:$B$47,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>237</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+      <c r="D40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" t="e">
+        <f>VLOOKUP(Ruangan!A41,$A$1:$B$47,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>238</v>
+      </c>
+      <c r="B41">
+        <v>41</v>
+      </c>
+      <c r="D41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" t="e">
+        <f>VLOOKUP(Ruangan!A42,$A$1:$B$47,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>239</v>
+      </c>
+      <c r="B42">
+        <v>42</v>
+      </c>
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42">
+        <f>VLOOKUP(Ruangan!A43,$A$1:$B$47,2,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43">
+        <v>43</v>
+      </c>
+      <c r="D43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" t="e">
+        <f>VLOOKUP(Ruangan!A44,$A$1:$B$47,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44">
+        <v>44</v>
+      </c>
+      <c r="D44" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" t="e">
+        <f>VLOOKUP(Ruangan!A45,$A$1:$B$47,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>240</v>
+      </c>
+      <c r="B45">
+        <v>45</v>
+      </c>
+      <c r="D45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45">
+        <f>VLOOKUP(Ruangan!A46,$A$1:$B$47,2,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>241</v>
+      </c>
+      <c r="B46">
+        <v>46</v>
+      </c>
+      <c r="D46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46">
+        <f>VLOOKUP(Ruangan!A47,$A$1:$B$47,2,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47">
+        <v>47</v>
+      </c>
+      <c r="D47" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47">
+        <f>VLOOKUP(Ruangan!A48,$A$1:$B$47,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" t="e">
+        <f>VLOOKUP(Ruangan!A49,$A$1:$B$47,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" t="e">
+        <f>VLOOKUP(Ruangan!A50,$A$1:$B$47,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" t="e">
+        <f>VLOOKUP(Ruangan!A51,$A$1:$B$47,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" t="e">
+        <f>VLOOKUP(Ruangan!A52,$A$1:$B$47,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52">
+        <f>VLOOKUP(Ruangan!A53,$A$1:$B$47,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53">
+        <f>VLOOKUP(Ruangan!A54,$A$1:$B$47,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54">
+        <f>VLOOKUP(Ruangan!A55,$A$1:$B$47,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" t="e">
+        <f>VLOOKUP(Ruangan!A56,$A$1:$B$47,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" t="e">
+        <f>VLOOKUP(Ruangan!A57,$A$1:$B$47,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57">
+        <f>VLOOKUP(Ruangan!A58,$A$1:$B$47,2,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58">
+        <f>VLOOKUP(Ruangan!A59,$A$1:$B$47,2,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E59">
+        <f>VLOOKUP(Ruangan!A60,$A$1:$B$47,2,0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60">
+        <f>VLOOKUP(Ruangan!A61,$A$1:$B$47,2,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61">
+        <f>VLOOKUP(Ruangan!A62,$A$1:$B$47,2,0)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>223</v>
+      </c>
+      <c r="E62">
+        <f>VLOOKUP(Ruangan!A63,$A$1:$B$47,2,0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" t="e">
+        <f>VLOOKUP(Ruangan!A64,$A$1:$B$47,2,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
